--- a/data/trans_bre/P28A_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-25,78</t>
+          <t>-7,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-58,69%</t>
+          <t>-62,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-26,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>-71,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>-33,3%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-52,67; -0,91</t>
+          <t>-23,12; 2,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 31,3</t>
+          <t>-19,27; 9,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 17,01</t>
+          <t>-22,13; 2,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 18,4</t>
+          <t>-13,46; 4,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,77; 4,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 209,39</t>
+          <t>-89,41; 307,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-86,39; 436,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-85,21; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,98</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>-18,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,47%</t>
+          <t>-27,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 33,25</t>
+          <t>-16,01; 9,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 7,89</t>
+          <t>-14,13; 8,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 25,08</t>
+          <t>-4,54; 16,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 9,52</t>
+          <t>-11,17; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 184,39</t>
+          <t>-76,18; 209,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,01; 98,01</t>
+          <t>-87,01; 331,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 389,28</t>
+          <t>-63,41; 1278,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,81</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>75,22%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,92%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>168,15%</t>
+          <t>70,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>85,61%</t>
+          <t>-69,17%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 40,41</t>
+          <t>-8,53; 14,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 26,95</t>
+          <t>-8,53; 6,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 20,21</t>
+          <t>-5,36; 8,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 17,78</t>
+          <t>-8,69; 0,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 278,17</t>
+          <t>-50,58; 239,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,7; 393,39</t>
+          <t>-81,98; 409,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,87; 1026,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 1264,98</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,15</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>165,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>108,27%</t>
+          <t>176,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>205,08%</t>
+          <t>125,57%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 21,26</t>
+          <t>-7,98; 9,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 23,79</t>
+          <t>-1,66; 10,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 21,9</t>
+          <t>-1,57; 10,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 33,09</t>
+          <t>-2,4; 10,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 97,93</t>
+          <t>-61,65; 222,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,61; inf</t>
+          <t>-71,88; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 1218,74</t>
+          <t>-61,55; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 1403,55</t>
+          <t>-60,65; 816,91</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,65</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-59,2%</t>
+          <t>174,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>374,24%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 25,12</t>
+          <t>-7,21; 8,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 28,9</t>
+          <t>-5,08; 11,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 2,91</t>
+          <t>-1,57; 11,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 21,03</t>
+          <t>0,0; 15,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-63,44; 342,24</t>
+          <t>-100,0; 633,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 784,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-93,92; 90,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1120,27 +1120,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,41</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,88%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,21; 33,28</t>
+          <t>0,0; 10,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,75</t>
+          <t>0,0; 10,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,46</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>25,3%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 14,53</t>
+          <t>-4,0; 4,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 11,59</t>
+          <t>-3,55; 3,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,8</t>
+          <t>-1,24; 5,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 11,28</t>
+          <t>-2,12; 2,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 60,42</t>
+          <t>-38,91; 70,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 91,28</t>
+          <t>-46,29; 103,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 118,99</t>
+          <t>-27,27; 300,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 267,28</t>
+          <t>-59,26; 243,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,15</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-62,44%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-26,06%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-71,82%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-33,3%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-21.12563252937543</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.851367889570621</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.823350606008735</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.11096155817487</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.5387081603903233</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2190933929439753</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4401629571104299</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.33918993380155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,12; 2,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,27; 9,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,13; 2,04</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,46; 4,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-89,41; 307,71</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-60.61406092234257</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-40.15351386866536</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-31.22045908673595</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.5447259063444</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.7377177710615346</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.22229119515692</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>51.88155936597337</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.57344592135704</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>31.93464233227181</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>3.261563911673866</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-18,1%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-27,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>97,39%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,01; 9,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 8,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 16,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,17; 0,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-76,18; 209,74</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-87,01; 331,53</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-63,41; 1278,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.518070653290698</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.505224666702267</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.3734017194076</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-5.191662011025888</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2697763092017897</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2331390831189545</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6607340547468515</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>28,4%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>70,72%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-69,17%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-27.54453230218777</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-37.98453759260075</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.36451921518815</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-27.64159229120111</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6032416938644927</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8267785869306703</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.596233945748858</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 14,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 6,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,36; 8,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,69; 0,99</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-50,58; 239,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-81,98; 409,6</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>39.9457196074901</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.60631993576641</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>36.14432589341848</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.497737007864246</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.063111408255557</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.28237982216871</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +811,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,06%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>165,65%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>176,82%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>125,57%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>11.94132837316665</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.993345265615186</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.96050568859658</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.335271019505909</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.3299282584683433</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4135826173267433</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4681042648735684</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6121151436125476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 9,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 10,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 10,64</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 10,86</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-61,65; 222,46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-71,88; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-61,55; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-60,65; 816,91</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.32973816436778</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.72628821213089</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.89497771196825</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.31497822313558</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.300020148922348</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6705085202228614</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8366702123879881</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>40.44305905182144</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>27.05851245422825</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.21137528115175</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.471455134989959</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.270439753630213</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>45,61%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>174,64%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,21; 8,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 11,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 11,72</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,61</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 633,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.292765423931115</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>14.75552601152439</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.863417032622226</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>13.26040670639128</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.09755415375127603</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.727151483104117</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4559170890958258</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9436287871357739</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-28.49762219225303</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.696894978554689</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-23.68062902960028</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.88098060345669</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.620063333799826</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4611851017173296</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.8265357886470405</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6156336657663072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,72</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.54137332667578</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>34.25633034544001</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>22.20271416935196</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>32.04557075341646</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.476774948218545</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>7.724708619455715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,44 +999,30 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,78%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>57,78%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>25,3%</t>
+      <c r="C16" s="5" t="n">
+        <v>7.563406029040859</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.956863048850153</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>6.651971312408151</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>7.16458786502479</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.432962897257924</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.1374208971038631</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.852190417628688</v>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -1263,52 +1030,240 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 4,74</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 3,83</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 5,07</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 2,91</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-38,91; 70,03</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-46,29; 103,96</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-27,27; 300,96</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-59,26; 243,21</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-19.5730988089415</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-30.70726502260455</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.393697121828982</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>39.5848236488925</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>26.37077426251818</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>27.73107436006719</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>29.35632501979685</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>6.489894711508531</v>
+      </c>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>19.8469611232185</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>19.54673423805394</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>5.585162912223118</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr"/>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>80.31706642439566</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>80.12034983175924</v>
+      </c>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>27.70097266868515</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.773177106606652</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.616393958374606</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.071431000645828</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.33021905686627</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1647742459474106</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1755281738691064</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.3859806028824148</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.3641656639101852</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.894325907289788</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.136654334310304</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.032126251692315</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-4.790352789314801</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.2230420884038433</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.2990357202083011</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3580580917260278</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.5030110824301551</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>19.70569814564046</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>15.72632373358968</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>11.89530599114384</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>9.229739455939384</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.9205315234175885</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.12327417422699</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.881178744757028</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>2.99213744034921</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1271,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
